--- a/Employees.xlsx
+++ b/Employees.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uncommonStudent\OneDrive\Desktop\uncommon project  final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/86c37bb99db51508/Desktop/payslip_genarater/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F8DC6D8-99EA-456A-A51B-3A1F87F0A635}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{1F8DC6D8-99EA-456A-A51B-3A1F87F0A635}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D6A5C5A5-E8E9-480B-8C0B-67A0F28FA831}"/>
   <bookViews>
     <workbookView xWindow="1170" yWindow="1170" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Employee ID</t>
   </si>
@@ -82,6 +82,18 @@
   </si>
   <si>
     <t>Manager</t>
+  </si>
+  <si>
+    <t>nashegraphix@gmail.com</t>
+  </si>
+  <si>
+    <t>dylan.maupa@uncommon.org</t>
+  </si>
+  <si>
+    <t>kudziet221@gmail.com</t>
+  </si>
+  <si>
+    <t>gurureruvimbofaith@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -126,7 +138,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -134,6 +146,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -419,7 +432,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -490,7 +503,9 @@
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
@@ -512,7 +527,9 @@
       <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="C4" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="D4" s="1" t="s">
         <v>12</v>
       </c>
@@ -534,7 +551,9 @@
       <c r="B5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
@@ -556,7 +575,9 @@
       <c r="B6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="D6" s="1" t="s">
         <v>18</v>
       </c>
@@ -574,8 +595,10 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{FDED863B-CFC8-4DD7-B3BD-8BC3F7A91987}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{ECF17193-65BC-4A50-9271-1591E78C0D4F}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{F79EDC91-8632-414D-907E-5AF72F527D7C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>